--- a/xlsx/发电机_intext.xlsx
+++ b/xlsx/发电机_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
   <si>
     <t>发电机</t>
   </si>
@@ -29,13 +29,13 @@
     <t>美国核能管理委员会</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_发电机</t>
+    <t>政策_政策_混合动力车辆_发电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E8%83%BD</t>
   </si>
   <si>
-    <t>動能</t>
+    <t>动能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%83%BD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>原動機</t>
+    <t>原动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0%E8%83%BD</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>輸電</t>
+    <t>输电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%8D%E9%9B%BB</t>
   </si>
   <si>
-    <t>配電</t>
+    <t>配电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>電動機</t>
+    <t>电动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E7%A3%81%E6%84%9F%E5%BA%94</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E8%BC%AA%E7%99%BC%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>水輪發電機</t>
+    <t>水轮发电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E8%92%B8%E6%B1%BD%E6%A9%9F</t>
   </si>
   <si>
-    <t>渦輪蒸汽機</t>
+    <t>涡轮蒸汽机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%AE%E5%8F%91%E7%94%B5%E6%9C%BA</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1</t>
   </si>
   <si>
-    <t>地熱</t>
+    <t>地热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E5%AD%90</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9%E6%A9%9F</t>
   </si>
   <si>
-    <t>柴油機</t>
+    <t>柴油机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E7%BC%B8</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E9%99%A2</t>
   </si>
   <si>
-    <t>醫院</t>
+    <t>医院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%88%BF</t>
@@ -227,45 +227,39 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>資料中心</t>
+    <t>资料中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>工廠</t>
+    <t>工厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>核電廠</t>
+    <t>核电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B1%A0%E7%B5%84</t>
   </si>
   <si>
-    <t>電池組</t>
+    <t>电池组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E8%83%BD</t>
   </si>
   <si>
-    <t>機械能</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%B5%81%E9%9B%BB</t>
   </si>
   <si>
-    <t>交流電</t>
+    <t>交流电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%83%BD</t>
   </si>
   <si>
-    <t>電能</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Faraday_disk</t>
   </si>
   <si>
@@ -275,25 +269,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E6%B3%95%E6%8B%89%E7%AC%AC</t>
   </si>
   <si>
-    <t>麥可·法拉第</t>
+    <t>麦可·法拉第</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E7%B4%8D%C2%B7%E9%A6%AE%C2%B7%E8%A5%BF%E9%96%80%E5%AD%90</t>
   </si>
   <si>
-    <t>維爾納·馮·西門子</t>
+    <t>维尔纳·冯·西门子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%96%80%E5%AD%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>西門子公司</t>
+    <t>西门子公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E7%9B%B8</t>
@@ -305,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%88%BE%E6%96%87%E5%8B%B3%E7%88%B5</t>
   </si>
   <si>
-    <t>開爾文勳爵</t>
+    <t>开尔文勳爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E8%8C%B2</t>
   </si>
   <si>
-    <t>赫茲</t>
+    <t>赫兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%C2%B7%E7%89%B9%E6%96%AF%E6%8B%89</t>
@@ -323,19 +317,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A7%E5%85%89%E7%87%88</t>
   </si>
   <si>
-    <t>弧光燈</t>
+    <t>弧光灯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E7%86%BE%E7%87%88</t>
   </si>
   <si>
-    <t>白熾燈</t>
+    <t>白炽灯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%B5%81%E9%9B%BB</t>
   </si>
   <si>
-    <t>直流電</t>
+    <t>直流电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E7%94%B5%E6%B0%94</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/Goodness%E4%BF%82%E6%95%B8</t>
   </si>
   <si>
-    <t>Goodness係數</t>
+    <t>Goodness系数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%B4%E5%90%91%E7%A3%81%E5%9C%BA%E7%94%B5%E6%9C%BA</t>
@@ -383,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB%E6%96%B9%E5%BC%8F</t>
   </si>
   <si>
-    <t>發電方式</t>
+    <t>发电方式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%8A%9B%E5%8F%91%E7%94%B5</t>
@@ -401,31 +395,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%83%BD%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>核能發電</t>
+    <t>核能发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>風力發電</t>
+    <t>风力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>太陽能發電</t>
+    <t>太阳能发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%82%B3%E5%B0%8E%E7%99%BC%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>熱傳導發電機</t>
+    <t>热传导发电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%9B%BB%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>Template talk-電動機</t>
+    <t>Template talk-电动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%B5%81%E7%94%B5%E5%8A%A8%E6%9C%BA</t>
@@ -437,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%B5%81%E6%9C%89%E5%88%B7%E9%A6%AC%E9%81%94</t>
   </si>
   <si>
-    <t>直流有刷馬達</t>
+    <t>直流有刷马达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%B5%81%E7%84%A1%E5%88%B7%E9%9B%BB%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>直流無刷電動機</t>
+    <t>直流无刷电动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%B5%81%E7%94%B5%E5%8A%A8%E6%9C%BA</t>
@@ -455,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%AD%A5%E9%A6%AC%E9%81%94</t>
   </si>
   <si>
-    <t>同步馬達</t>
+    <t>同步马达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%82%E6%AD%A5%E7%94%B5%E5%8A%A8%E6%9C%BA</t>
@@ -473,31 +467,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%9E%E7%B7%9A%E8%BD%89%E5%AD%90%E9%A6%AC%E9%81%94</t>
   </si>
   <si>
-    <t>繞線轉子馬達</t>
+    <t>绕线转子马达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VS%E9%A6%AC%E9%81%94</t>
   </si>
   <si>
-    <t>VS馬達</t>
+    <t>VS马达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%BA%E6%9C%8D%E9%A6%AC%E9%81%94</t>
   </si>
   <si>
-    <t>伺服馬達</t>
+    <t>伺服马达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E9%98%BB%E9%A6%AC%E9%81%94</t>
   </si>
   <si>
-    <t>磁阻馬達</t>
+    <t>磁阻马达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%A3%81%E5%90%8C%E6%AD%A5%E9%A6%AC%E9%81%94</t>
   </si>
   <si>
-    <t>永磁同步馬達</t>
+    <t>永磁同步马达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%9A%E7%8F%A0%E8%BD%B4%E6%89%BF%E7%94%B5%E5%8A%A8%E6%9C%BA</t>
@@ -521,25 +515,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E7%9F%A9%E9%A6%AC%E9%81%94</t>
   </si>
   <si>
-    <t>力矩馬達</t>
+    <t>力矩马达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E6%A5%B5%E9%A6%AC%E9%81%94</t>
   </si>
   <si>
-    <t>單極馬達</t>
+    <t>单极马达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E7%B7%9A%E9%9B%BB%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>直線電動機</t>
+    <t>直线电动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E9%80%B2%E9%A6%AC%E9%81%94</t>
   </si>
   <si>
-    <t>步進馬達</t>
+    <t>步进马达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%9C%BA%E6%8E%A7%E5%88%B6%E5%99%A8</t>
@@ -563,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8E%E8%BB%8A%E6%96%AC%E6%B3%A2%E5%99%A8</t>
   </si>
   <si>
-    <t>剎車斬波器</t>
+    <t>刹车斩波器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E8%BD%89%E7%9F%A9%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>直接轉矩控制</t>
+    <t>直接转矩控制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Motor_soft_starter</t>
@@ -605,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%BD%E5%BC%95%E9%9B%BB%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>牽引電動機</t>
+    <t>牵引电动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%88%B7</t>
@@ -617,37 +611,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%B5%81%E7%99%BC%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>交流發電機</t>
+    <t>交流发电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%BA%90%E4%BE%9B%E6%87%89</t>
   </si>
   <si>
-    <t>電源供應</t>
+    <t>电源供应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9F%E7%8E%87</t>
   </si>
   <si>
-    <t>電功率</t>
+    <t>电功率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%A3%93%E9%9B%BB</t>
   </si>
   <si>
-    <t>高壓電</t>
+    <t>高压电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E7%9B%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>單相電</t>
+    <t>单相电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%9B%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>三相電</t>
+    <t>三相电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E7%8E%87%E5%9B%A0%E6%95%B0</t>
@@ -671,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%B5%81</t>
@@ -689,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8D%E5%AE%9A%E5%AE%B9%E9%87%8F</t>
   </si>
   <si>
-    <t>額定容量</t>
+    <t>额定容量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%9B%B8_(%E7%94%B5%E5%AD%A6)</t>
@@ -707,19 +701,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%8A%9B%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>火力發電廠</t>
+    <t>火力发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
+    <t>天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E9%A0%81%E5%B2%A9</t>
   </si>
   <si>
-    <t>油頁岩</t>
+    <t>油页岩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%B5%E5%B2%A9%E6%B2%B9</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>核動力</t>
+    <t>核动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E7%83%B7%E6%B0%B4%E5%90%88%E7%89%A9</t>
@@ -755,9 +749,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E8%83%BD</t>
   </si>
   <si>
@@ -767,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>地熱能</t>
+    <t>地热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E8%83%BD</t>
@@ -797,13 +788,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B0%B4%E6%BA%AB%E5%B7%AE%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>海水溫差發電</t>
+    <t>海水温差发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B0%B4%E9%B9%BD%E5%B7%AE%E8%83%BD</t>
   </si>
   <si>
-    <t>海水鹽差能</t>
+    <t>海水盐差能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%B4%A8</t>
@@ -815,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>發電</t>
+    <t>发电</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Induction_generator</t>
@@ -827,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>微型發電</t>
+    <t>微型发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E7%94%B5%E8%81%94%E4%BA%A7</t>
@@ -851,13 +842,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E8%B2%A0%E8%BC%89%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>基本負載發電廠</t>
+    <t>基本负载发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E5%B3%B0%E8%B2%A0%E8%BC%89%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>尖峰負載發電廠</t>
+    <t>尖峰负载发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%A8%E8%83%BD%E6%8A%80%E6%9C%AF</t>
@@ -893,13 +884,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%B5%81%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>液流電池</t>
+    <t>液流电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%B6%B2%E5%84%B2%E8%83%BD</t>
   </si>
   <si>
-    <t>電網儲能</t>
+    <t>电网储能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E8%BD%AE%E5%82%A8%E8%83%BD</t>
@@ -941,19 +932,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E5%8D%BB%E5%A1%94</t>
   </si>
   <si>
-    <t>冷卻塔</t>
+    <t>冷却塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B%E7%B7%9A%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>電力線通信</t>
+    <t>电力线通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E9%9B%BB%E8%A1%A8</t>
   </si>
   <si>
-    <t>智慧型電表</t>
+    <t>智慧型电表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E8%82%AF%E5%BE%AA%E7%8E%AF</t>
@@ -965,13 +956,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>超導體</t>
+    <t>超导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%B8%E9%9B%BB%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>輸電網路</t>
+    <t>输电网路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transmission_tower</t>
@@ -983,25 +974,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%A3%93%E7%9B%B4%E6%B5%81%E8%BC%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>高壓直流輸電</t>
+    <t>高压直流输电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E9%9B%BB%E7%B6%B2</t>
   </si>
   <si>
-    <t>智慧電網</t>
+    <t>智慧电网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E9%9B%BB%E7%B6%B2</t>
   </si>
   <si>
-    <t>超級電網</t>
+    <t>超级电网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%9B%BB%E6%89%80</t>
   </si>
   <si>
-    <t>變電所</t>
+    <t>变电所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E5%8E%8B%E5%99%A8</t>
@@ -1019,19 +1010,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%95%A3%E5%BC%8F%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>分散式發電</t>
+    <t>分散式发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93%E9%A9%9F%E9%99%8D</t>
   </si>
   <si>
-    <t>電壓驟降</t>
+    <t>电压骤降</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E9%9B%BB</t>
   </si>
   <si>
-    <t>停電</t>
+    <t>停电</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rolling_blackout</t>
@@ -1043,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A8%85</t>
   </si>
   <si>
-    <t>生態稅</t>
+    <t>生态税</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Energy_subsidies</t>
@@ -1079,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%80%E8%AE%A1%E9%87%8F%E7%94%B5%E4%BB%B7</t>
@@ -1103,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1121,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2594,7 +2585,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2620,10 +2611,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -2649,10 +2640,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2678,10 +2669,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2736,10 +2727,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2765,10 +2756,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2794,10 +2785,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2823,10 +2814,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2852,10 +2843,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2881,10 +2872,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2910,10 +2901,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
@@ -2939,10 +2930,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2968,10 +2959,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2997,10 +2988,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3055,10 +3046,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>4</v>
@@ -3084,10 +3075,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3113,10 +3104,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3142,10 +3133,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3171,10 +3162,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3200,10 +3191,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3229,10 +3220,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3258,10 +3249,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3287,10 +3278,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3316,10 +3307,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3345,10 +3336,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3374,10 +3365,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3403,10 +3394,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3432,10 +3423,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3461,10 +3452,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3490,10 +3481,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3519,10 +3510,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3548,10 +3539,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3577,10 +3568,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3606,10 +3597,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3635,10 +3626,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3664,10 +3655,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3693,10 +3684,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3722,10 +3713,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3751,10 +3742,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3780,10 +3771,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3809,10 +3800,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3838,10 +3829,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3867,10 +3858,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3896,10 +3887,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3925,10 +3916,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3954,10 +3945,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3983,10 +3974,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4012,10 +4003,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4041,10 +4032,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4070,10 +4061,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4099,10 +4090,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4128,10 +4119,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4157,10 +4148,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4186,10 +4177,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4215,10 +4206,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4244,10 +4235,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4273,10 +4264,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4302,10 +4293,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4331,10 +4322,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4360,10 +4351,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4389,10 +4380,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4418,10 +4409,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>11</v>
@@ -4447,10 +4438,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>6</v>
@@ -4476,10 +4467,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4505,10 +4496,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4534,10 +4525,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>78</v>
+      </c>
+      <c r="F106" t="s">
         <v>79</v>
-      </c>
-      <c r="F106" t="s">
-        <v>80</v>
       </c>
       <c r="G106" t="n">
         <v>6</v>
@@ -4563,10 +4554,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4592,10 +4583,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4621,10 +4612,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4650,10 +4641,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4679,10 +4670,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4708,10 +4699,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4737,10 +4728,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -4766,10 +4757,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4795,10 +4786,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4824,10 +4815,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4853,10 +4844,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4882,10 +4873,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4911,10 +4902,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4940,10 +4931,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4969,10 +4960,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4998,10 +4989,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5027,10 +5018,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5056,10 +5047,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5085,10 +5076,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>6</v>
@@ -5114,10 +5105,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5143,10 +5134,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5172,10 +5163,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5201,10 +5192,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5230,10 +5221,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5259,10 +5250,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5288,10 +5279,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5317,10 +5308,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5346,10 +5337,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5375,10 +5366,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5404,10 +5395,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5433,10 +5424,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>56</v>
@@ -5462,10 +5453,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5491,10 +5482,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5520,10 +5511,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5549,10 +5540,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5578,10 +5569,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5607,10 +5598,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5636,10 +5627,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5665,10 +5656,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>5</v>
@@ -5694,10 +5685,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5723,10 +5714,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5752,10 +5743,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5781,10 +5772,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5810,10 +5801,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5839,10 +5830,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5868,10 +5859,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5897,10 +5888,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5926,10 +5917,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5955,10 +5946,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5984,10 +5975,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6013,10 +6004,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6042,10 +6033,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6071,10 +6062,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6100,10 +6091,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6129,10 +6120,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6158,10 +6149,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6187,10 +6178,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6216,10 +6207,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6245,10 +6236,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6274,10 +6265,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6303,10 +6294,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6332,10 +6323,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6361,10 +6352,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6390,10 +6381,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6419,10 +6410,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6448,10 +6439,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6477,10 +6468,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6506,10 +6497,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6535,10 +6526,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6564,10 +6555,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6593,10 +6584,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6622,10 +6613,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6651,10 +6642,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6680,10 +6671,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6709,10 +6700,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6738,10 +6729,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6767,10 +6758,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6796,10 +6787,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6825,10 +6816,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -6854,10 +6845,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6883,10 +6874,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6912,10 +6903,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>

--- a/xlsx/发电机_intext.xlsx
+++ b/xlsx/发电机_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国核能管理委员会</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_发电机</t>
+    <t>体育运动_体育运动_技术_发电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E8%83%BD</t>
